--- a/biology/Botanique/Barleria_observatrix/Barleria_observatrix.xlsx
+++ b/biology/Botanique/Barleria_observatrix/Barleria_observatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barleria observatrix est une plante endémique de l'île Maurice de la famille des acanthaceae du genre barleria. Son environnement naturel est constitué des forêts tropicales ou subtropicales sèches. Elle est menacée de disparition.
 </t>
@@ -511,7 +523,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en)  Rutty, R. 2000.  Barleria observatrix, Bosser &amp; Heide.
 (en)   Liste rouge (2006) des espèces menacées. </t>
